--- a/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="913"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
-    <sheet name="Desenho do Mapa P2" sheetId="18" r:id="rId5"/>
-    <sheet name="Mapeamento P2 - Fluxo 1" sheetId="17" r:id="rId6"/>
-    <sheet name="Mapeamento P2 - Fluxo 2" sheetId="19" r:id="rId7"/>
-    <sheet name="Mapeamento P2 - Fluxo 3" sheetId="20" r:id="rId8"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho - ATU_ODS_REMUN_DOCENTE" sheetId="18" r:id="rId5"/>
+    <sheet name=" Map - ATU_ODS_REMUN_DOCENTE F1" sheetId="17" r:id="rId6"/>
+    <sheet name=" Map - ATU_ODS_REMUN_DOCENTE F2" sheetId="19" r:id="rId7"/>
+    <sheet name=" Map - ATU_ODS_REMUN_DOCENTE F3" sheetId="20" r:id="rId8"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -1299,17 +1299,6 @@
         END IF;</t>
   </si>
   <si>
-    <t>DT_PAGAMENTO IS NULL
-AND COD_TIPO_CURSO          = 1
-AND IND_SITUACAO_GRUPO     = '3'
-AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
-AND QTD_VAGAS_OCUPADAS     &gt; 0
-IND_PAGAMENTO           = 'S'
-AND TRUNC(DT_INICIO_ALOCACAO) BETWEEN TRUNC(V_DT_INI_SELECAO_PAG) AND TRUNC(V_DT_FIM_SELECAO_PAG)
-AND IND_TIPO_SALARIO IN ('H','M')
-THEN APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
     <t>IND_DESTINO</t>
   </si>
   <si>
@@ -1341,28 +1330,6 @@
           THEN
             V_DESTINO := 2;
           END IF;</t>
-  </si>
-  <si>
-    <t>DT_PAGAMENTO IS NULL
-AND VAL_HORA_AULA IS NOT NULL)
-AND COD_TIPO_CURSO = 1
-AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
-AND QTD_ALUNOS_MATRICULADOS &gt; 0
-AND IND_PAGAMENTO = 'S'
-AND TRUNC(DT_INICIO_ALOCACAO) BETWEEN TRUNC(V_DT_INI_SELECAO_PAG) AND TRUNC(V_DT_FIM_SELECAO_PAG)
-AND NUM_SEQ_PERIODO_ACADEMICO IS NOT NULL
-AND IND_TIPO_SALARIO IN ('H','M')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT_PAGAMENTO IS NOT NULL
-AND DT_SOLICITACAO_DESCONTO IS NOT NULL
-AND DT_GERACAO_DESCONTO IS NULL
-AND VAL_HORA_AULA IS NOT NULL
-AND COD_TIPO_CURSO = 1
-AND NVL(IND_SITUACAO_GRUPO,'3') = '3'
-AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
-AND IND_TIPO_SALARIO IN ('H','M')
-</t>
   </si>
   <si>
     <t>CONSOLIDACAO_HORISTA</t>
@@ -1397,6 +1364,45 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO = 'PRO_APURACAO_ESPECIALIZACAO' 
+AND IND_APTO_PAGAMENTO = 1
+AND DT_PAGAMENTO IS NULL
+AND VAL_HORA_AULA IS NOT NULL)
+AND COD_TIPO_CURSO = 1
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND QTD_ALUNOS_MATRICULADOS &gt; 0
+AND IND_PAGAMENTO = 'S'
+AND TRUNC(DT_INICIO_ALOCACAO) BETWEEN TRUNC(V_DT_INI_SELECAO_PAG) AND TRUNC(V_DT_FIM_SELECAO_PAG)
+AND NUM_SEQ_PERIODO_ACADEMICO IS NOT NULL
+AND IND_TIPO_SALARIO IN ('H','M')</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO = 'PRO_APURACAO_ESPECIALIZACAO' 
+AND IND_APTO_PAGAMENTO = 1
+AND DT_PAGAMENTO IS NULL
+AND COD_TIPO_CURSO          = 1
+AND IND_SITUACAO_GRUPO     = '3'
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND QTD_VAGAS_OCUPADAS     &gt; 0
+IND_PAGAMENTO           = 'S'
+AND TRUNC(DT_INICIO_ALOCACAO) BETWEEN TRUNC(V_DT_INI_SELECAO_PAG) AND TRUNC(V_DT_FIM_SELECAO_PAG)
+AND IND_TIPO_SALARIO IN ('H','M')
+THEN APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_PROCESSO = 'PRO_APURACAO_ESPECIALIZACAO' 
+AND IND_APTO_PAGAMENTO = 1
+AND DT_PAGAMENTO IS NOT NULL
+AND DT_SOLICITACAO_DESCONTO IS NOT NULL
+AND DT_GERACAO_DESCONTO IS NULL
+AND VAL_HORA_AULA IS NOT NULL
+AND COD_TIPO_CURSO = 1
+AND NVL(IND_SITUACAO_GRUPO,'3') = '3'
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND IND_TIPO_SALARIO IN ('H','M')
+</t>
   </si>
 </sst>
 </file>
@@ -2303,6 +2309,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2321,6 +2333,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2514,19 +2529,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3129,10 +3135,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="197"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
@@ -3144,7 +3150,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -3170,28 +3176,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -3200,17 +3206,17 @@
       <c r="C11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138" t="s">
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -3219,83 +3225,83 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143" t="s">
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="144"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="128"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3345,7 +3351,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="24">
         <f>Identificação!D2</f>
@@ -3354,7 +3360,7 @@
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="42" t="str">
         <f>Identificação!D3</f>
@@ -3374,17 +3380,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3393,132 +3399,132 @@
       <c r="C7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="109" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="109" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="109" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="109" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="109" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="109" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="109" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="109" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="109" t="s">
         <v>129</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
       <c r="B17" s="5"/>
@@ -3532,17 +3538,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="47" t="s">
@@ -3554,33 +3560,33 @@
       <c r="D19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="153" t="s">
+      <c r="F19" s="158"/>
+      <c r="G19" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="155"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
+        <v>204</v>
+      </c>
+      <c r="E20" s="154" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="155"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
@@ -3594,11 +3600,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="46" t="s">
@@ -3620,7 +3626,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -3637,17 +3643,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="51" t="s">
@@ -3659,54 +3665,52 @@
       <c r="D28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150" t="s">
+      <c r="F28" s="153"/>
+      <c r="G28" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D15:J15"/>
@@ -3724,6 +3728,8 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="E31:F31"/>
@@ -3744,9 +3750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3757,7 +3761,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="20482" r:id="rId3"/>
+    <oleObject progId="Visio.Drawing.11" shapeId="20483" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -3770,7 +3774,7 @@
   <dimension ref="B1:AF46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -3817,39 +3821,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -3960,10 +3964,10 @@
         <v>113</v>
       </c>
       <c r="R4" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S4" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T4" s="67" t="s">
         <v>85</v>
@@ -4008,10 +4012,10 @@
         <v>113</v>
       </c>
       <c r="R5" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S5" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T5" s="67" t="s">
         <v>89</v>
@@ -4076,10 +4080,10 @@
         <v>113</v>
       </c>
       <c r="R6" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S6" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T6" s="89" t="s">
         <v>84</v>
@@ -4124,10 +4128,10 @@
         <v>113</v>
       </c>
       <c r="R7" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S7" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T7" s="79" t="s">
         <v>90</v>
@@ -4192,10 +4196,10 @@
         <v>113</v>
       </c>
       <c r="R8" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S8" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T8" s="69" t="s">
         <v>86</v>
@@ -4260,10 +4264,10 @@
         <v>113</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T9" s="66" t="s">
         <v>91</v>
@@ -4326,10 +4330,10 @@
         <v>113</v>
       </c>
       <c r="R10" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S10" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T10" s="80" t="s">
         <v>87</v>
@@ -4394,10 +4398,10 @@
         <v>113</v>
       </c>
       <c r="R11" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S11" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T11" s="81" t="s">
         <v>92</v>
@@ -4462,10 +4466,10 @@
         <v>113</v>
       </c>
       <c r="R12" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S12" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T12" s="69" t="s">
         <v>75</v>
@@ -4530,10 +4534,10 @@
         <v>113</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T13" s="59" t="s">
         <v>93</v>
@@ -4578,10 +4582,10 @@
         <v>113</v>
       </c>
       <c r="R14" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S14" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T14" s="65" t="s">
         <v>95</v>
@@ -4639,42 +4643,42 @@
         <v>2</v>
       </c>
       <c r="M15" s="97"/>
-      <c r="N15" s="176" t="s">
+      <c r="N15" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163" t="s">
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S15" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="T15" s="179" t="s">
+        <v>199</v>
+      </c>
+      <c r="T15" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="U15" s="179" t="s">
+      <c r="U15" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="V15" s="160"/>
-      <c r="W15" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="X15" s="182" t="s">
+      <c r="V15" s="163"/>
+      <c r="W15" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="185" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="166">
+      <c r="Y15" s="169">
         <v>12</v>
       </c>
-      <c r="Z15" s="166">
+      <c r="Z15" s="169">
         <v>2</v>
       </c>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B16" s="60" t="s">
@@ -4711,26 +4715,26 @@
       <c r="M16" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="177"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
       <c r="R16" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S16" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="T16" s="180"/>
-      <c r="U16" s="180"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="183"/>
-      <c r="Y16" s="167"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
+        <v>199</v>
+      </c>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="161"/>
+      <c r="AC16" s="161"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="60" t="s">
@@ -4767,26 +4771,26 @@
       <c r="M17" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="N17" s="178"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
       <c r="R17" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S17" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="T17" s="181"/>
-      <c r="U17" s="181"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
+        <v>199</v>
+      </c>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="165"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="83"/>
@@ -4810,10 +4814,10 @@
         <v>113</v>
       </c>
       <c r="R18" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S18" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T18" s="65" t="s">
         <v>97</v>
@@ -4874,10 +4878,10 @@
         <v>113</v>
       </c>
       <c r="R19" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S19" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T19" s="65" t="s">
         <v>98</v>
@@ -4942,10 +4946,10 @@
         <v>113</v>
       </c>
       <c r="R20" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S20" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T20" s="59" t="s">
         <v>99</v>
@@ -5012,10 +5016,10 @@
         <v>113</v>
       </c>
       <c r="R21" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S21" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T21" s="67" t="s">
         <v>76</v>
@@ -5080,10 +5084,10 @@
         <v>113</v>
       </c>
       <c r="R22" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S22" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T22" s="67" t="s">
         <v>77</v>
@@ -5148,10 +5152,10 @@
         <v>113</v>
       </c>
       <c r="R23" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S23" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T23" s="67" t="s">
         <v>78</v>
@@ -5216,10 +5220,10 @@
         <v>113</v>
       </c>
       <c r="R24" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S24" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T24" s="67" t="s">
         <v>79</v>
@@ -5284,10 +5288,10 @@
         <v>113</v>
       </c>
       <c r="R25" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S25" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T25" s="67" t="s">
         <v>80</v>
@@ -5350,10 +5354,10 @@
         <v>113</v>
       </c>
       <c r="R26" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S26" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T26" s="59" t="s">
         <v>81</v>
@@ -5418,10 +5422,10 @@
         <v>113</v>
       </c>
       <c r="R27" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S27" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T27" s="59" t="s">
         <v>100</v>
@@ -5466,10 +5470,10 @@
         <v>113</v>
       </c>
       <c r="R28" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S28" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T28" s="59" t="s">
         <v>83</v>
@@ -5514,10 +5518,10 @@
         <v>113</v>
       </c>
       <c r="R29" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S29" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T29" s="98" t="s">
         <v>102</v>
@@ -5582,10 +5586,10 @@
         <v>113</v>
       </c>
       <c r="R30" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S30" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T30" s="60" t="s">
         <v>149</v>
@@ -5648,10 +5652,10 @@
         <v>113</v>
       </c>
       <c r="R31" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S31" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T31" s="74" t="s">
         <v>139</v>
@@ -5716,10 +5720,10 @@
         <v>113</v>
       </c>
       <c r="R32" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S32" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T32" s="60" t="s">
         <v>150</v>
@@ -5784,10 +5788,10 @@
         <v>113</v>
       </c>
       <c r="R33" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S33" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T33" s="60" t="s">
         <v>158</v>
@@ -5854,10 +5858,10 @@
         <v>113</v>
       </c>
       <c r="R34" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S34" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T34" s="60" t="s">
         <v>146</v>
@@ -5924,10 +5928,10 @@
         <v>113</v>
       </c>
       <c r="R35" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S35" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T35" s="60" t="s">
         <v>154</v>
@@ -5988,10 +5992,10 @@
         <v>113</v>
       </c>
       <c r="R36" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S36" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T36" s="74" t="s">
         <v>138</v>
@@ -6050,10 +6054,10 @@
         <v>113</v>
       </c>
       <c r="R37" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S37" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T37" s="74" t="s">
         <v>137</v>
@@ -6112,10 +6116,10 @@
         <v>113</v>
       </c>
       <c r="R38" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S38" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T38" s="74" t="s">
         <v>136</v>
@@ -6180,10 +6184,10 @@
         <v>113</v>
       </c>
       <c r="R39" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S39" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T39" s="74" t="s">
         <v>130</v>
@@ -6246,10 +6250,10 @@
         <v>113</v>
       </c>
       <c r="R40" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S40" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T40" s="74" t="s">
         <v>135</v>
@@ -6310,10 +6314,10 @@
         <v>113</v>
       </c>
       <c r="R41" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S41" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T41" s="60" t="s">
         <v>88</v>
@@ -6378,10 +6382,10 @@
         <v>113</v>
       </c>
       <c r="R42" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S42" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T42" s="60" t="s">
         <v>160</v>
@@ -6446,10 +6450,10 @@
         <v>113</v>
       </c>
       <c r="R43" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S43" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T43" s="60" t="s">
         <v>159</v>
@@ -6494,10 +6498,10 @@
         <v>113</v>
       </c>
       <c r="R44" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S44" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T44" s="100" t="s">
         <v>176</v>
@@ -6542,10 +6546,10 @@
         <v>113</v>
       </c>
       <c r="R45" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S45" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T45" s="100" t="s">
         <v>177</v>
@@ -6588,10 +6592,10 @@
         <v>113</v>
       </c>
       <c r="R46" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S46" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T46" s="60" t="s">
         <v>178</v>
@@ -6643,9 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6669,7 +6671,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6716,39 +6718,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -6846,10 +6848,10 @@
         <v>113</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>138</v>
@@ -6867,40 +6869,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="188" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="N4" s="188" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="191" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="191" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="194" t="s">
+      <c r="V4" s="195"/>
+      <c r="W4" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="194">
+      <c r="Y4" s="196">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -6911,10 +6913,10 @@
         <v>113</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>87</v>
@@ -6934,36 +6936,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="189" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="194" t="s">
+      <c r="V5" s="195"/>
+      <c r="W5" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="196"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -6974,10 +6976,10 @@
         <v>113</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="60" t="s">
         <v>149</v>
@@ -6997,36 +6999,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="189" t="s">
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="194" t="s">
+      <c r="V6" s="195"/>
+      <c r="W6" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -7038,10 +7040,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>139</v>
@@ -7061,36 +7063,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="189" t="s">
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="194" t="s">
+      <c r="V7" s="195"/>
+      <c r="W7" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="194"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -7102,10 +7104,10 @@
         <v>113</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>150</v>
@@ -7125,36 +7127,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="189" t="s">
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="194" t="s">
+      <c r="V8" s="195"/>
+      <c r="W8" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -7166,10 +7168,10 @@
         <v>113</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="60" t="s">
         <v>158</v>
@@ -7189,36 +7191,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="189" t="s">
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="194" t="s">
+      <c r="V9" s="195"/>
+      <c r="W9" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="196"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -7230,10 +7232,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>135</v>
@@ -7251,36 +7253,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="189" t="s">
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="194" t="s">
+      <c r="V10" s="195"/>
+      <c r="W10" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="196"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -7292,10 +7294,10 @@
         <v>113</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>154</v>
@@ -7315,36 +7317,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="189" t="s">
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="192" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="194" t="s">
+      <c r="V11" s="195"/>
+      <c r="W11" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="196"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
@@ -7356,10 +7358,10 @@
         <v>113</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>177</v>
@@ -7377,36 +7379,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="190" t="s">
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="193" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="195"/>
+      <c r="W12" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="194" t="s">
+      <c r="X12" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="196"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1" ht="24" customHeight="1">
@@ -7418,10 +7420,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="60" t="s">
         <v>178</v>
@@ -7444,10 +7446,10 @@
         <v>113</v>
       </c>
       <c r="R13" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S13" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T13" s="68" t="s">
         <v>178</v>
@@ -7491,10 +7493,10 @@
         <v>113</v>
       </c>
       <c r="R14" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S14" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T14" s="68" t="s">
         <v>183</v>
@@ -7537,10 +7539,10 @@
         <v>113</v>
       </c>
       <c r="R15" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S15" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T15" s="68" t="s">
         <v>184</v>
@@ -7583,10 +7585,10 @@
         <v>113</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S16" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T16" s="68" t="s">
         <v>185</v>
@@ -7629,10 +7631,10 @@
         <v>113</v>
       </c>
       <c r="R17" s="122" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S17" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T17" s="68" t="s">
         <v>186</v>
@@ -7657,7 +7659,7 @@
       <c r="B18" s="110"/>
       <c r="C18" s="110"/>
       <c r="D18" s="89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E18" s="113"/>
       <c r="F18" s="89" t="s">
@@ -7675,24 +7677,24 @@
       <c r="L18" s="109"/>
       <c r="M18" s="110"/>
       <c r="N18" s="114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O18" s="120"/>
       <c r="P18" s="120"/>
-      <c r="Q18" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="S18" s="196" t="s">
-        <v>202</v>
+      <c r="Q18" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>199</v>
       </c>
       <c r="T18" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U18" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V18" s="60"/>
       <c r="W18" s="60" t="s">
@@ -7723,24 +7725,24 @@
       <c r="L19" s="105"/>
       <c r="M19" s="103"/>
       <c r="N19" s="115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O19" s="120"/>
       <c r="P19" s="120"/>
-      <c r="Q19" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="196" t="s">
-        <v>202</v>
-      </c>
-      <c r="S19" s="196" t="s">
-        <v>202</v>
+      <c r="Q19" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="S19" s="124" t="s">
+        <v>199</v>
       </c>
       <c r="T19" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U19" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V19" s="60"/>
       <c r="W19" s="60" t="s">
@@ -7775,10 +7777,10 @@
         <v>113</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T20" s="82" t="s">
         <v>94</v>
@@ -7790,7 +7792,7 @@
       <c r="W20" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="X20" s="195" t="s">
+      <c r="X20" s="123" t="s">
         <v>116</v>
       </c>
       <c r="Y20" s="89">
@@ -7823,10 +7825,10 @@
         <v>113</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S21" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T21" s="82" t="s">
         <v>101</v>
@@ -7838,7 +7840,7 @@
       <c r="W21" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="X21" s="195" t="s">
+      <c r="X21" s="123" t="s">
         <v>118</v>
       </c>
       <c r="Y21" s="89">
@@ -7932,39 +7934,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -8062,10 +8064,10 @@
         <v>113</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>138</v>
@@ -8083,40 +8085,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="N4" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" s="188"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="192" t="s">
+      <c r="V4" s="195"/>
+      <c r="W4" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="193">
+      <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -8127,10 +8129,10 @@
         <v>113</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>87</v>
@@ -8150,36 +8152,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="192" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="192" t="s">
+      <c r="V5" s="195"/>
+      <c r="W5" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -8190,10 +8192,10 @@
         <v>113</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="60" t="s">
         <v>149</v>
@@ -8213,36 +8215,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="192" t="s">
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="192" t="s">
+      <c r="V6" s="195"/>
+      <c r="W6" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -8254,10 +8256,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>139</v>
@@ -8277,36 +8279,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="192" t="s">
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="192" t="s">
+      <c r="V7" s="195"/>
+      <c r="W7" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -8318,16 +8320,16 @@
         <v>113</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60" t="s">
@@ -8341,36 +8343,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="192" t="s">
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="192" t="s">
+      <c r="V8" s="195"/>
+      <c r="W8" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -8382,10 +8384,10 @@
         <v>113</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="60" t="s">
         <v>158</v>
@@ -8405,36 +8407,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="192" t="s">
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="192" t="s">
+      <c r="V9" s="195"/>
+      <c r="W9" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -8446,10 +8448,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>135</v>
@@ -8467,36 +8469,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="192" t="s">
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="192" t="s">
+      <c r="V10" s="195"/>
+      <c r="W10" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -8508,10 +8510,10 @@
         <v>113</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>154</v>
@@ -8531,36 +8533,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="192" t="s">
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="192" t="s">
+      <c r="V11" s="195"/>
+      <c r="W11" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -8572,10 +8574,10 @@
         <v>113</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>177</v>
@@ -8593,36 +8595,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="192" t="s">
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="195"/>
+      <c r="W12" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="192" t="s">
+      <c r="X12" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33">
@@ -8647,10 +8649,10 @@
         <v>113</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T13" s="60" t="s">
         <v>183</v>
@@ -8693,10 +8695,10 @@
         <v>113</v>
       </c>
       <c r="R14" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S14" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T14" s="89" t="s">
         <v>184</v>
@@ -8739,10 +8741,10 @@
         <v>113</v>
       </c>
       <c r="R15" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S15" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T15" s="60" t="s">
         <v>185</v>
@@ -8785,10 +8787,10 @@
         <v>113</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S16" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T16" s="89" t="s">
         <v>186</v>
@@ -8825,7 +8827,7 @@
       <c r="L17" s="109"/>
       <c r="M17" s="110"/>
       <c r="N17" s="114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O17" s="120"/>
       <c r="P17" s="120"/>
@@ -8833,16 +8835,16 @@
         <v>113</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S17" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T17" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U17" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V17" s="60"/>
       <c r="W17" s="60" t="s">
@@ -8874,7 +8876,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="103"/>
       <c r="N18" s="115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O18" s="120"/>
       <c r="P18" s="120"/>
@@ -8882,16 +8884,16 @@
         <v>113</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T18" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U18" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V18" s="60"/>
       <c r="W18" s="60" t="s">
@@ -8927,10 +8929,10 @@
         <v>113</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T19" s="66" t="s">
         <v>94</v>
@@ -8975,10 +8977,10 @@
         <v>113</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T20" s="66" t="s">
         <v>101</v>
@@ -9003,8 +9005,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
     <mergeCell ref="AC4:AC12"/>
     <mergeCell ref="W4:W12"/>
     <mergeCell ref="X4:X12"/>
@@ -9022,6 +9022,8 @@
     <mergeCell ref="R4:R12"/>
     <mergeCell ref="T4:T12"/>
     <mergeCell ref="V4:V12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9085,39 +9087,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="173" t="s">
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="175"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -9215,10 +9217,10 @@
         <v>113</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>138</v>
@@ -9236,40 +9238,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="185" t="s">
-        <v>200</v>
-      </c>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="192" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="N4" s="188" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="192"/>
-      <c r="W4" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="192" t="s">
+      <c r="V4" s="195"/>
+      <c r="W4" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="193">
+      <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
-      <c r="AC4" s="191"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -9280,10 +9282,10 @@
         <v>113</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>87</v>
@@ -9303,36 +9305,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="192" t="s">
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="T5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="192" t="s">
+      <c r="U5" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="192"/>
-      <c r="W5" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="192" t="s">
+      <c r="V5" s="195"/>
+      <c r="W5" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -9343,10 +9345,10 @@
         <v>113</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="60" t="s">
         <v>149</v>
@@ -9366,36 +9368,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="192" t="s">
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="192" t="s">
+      <c r="T6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="192" t="s">
+      <c r="V6" s="195"/>
+      <c r="W6" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -9407,10 +9409,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>139</v>
@@ -9430,36 +9432,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="192" t="s">
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="192" t="s">
+      <c r="S7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="192" t="s">
+      <c r="T7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="192" t="s">
+      <c r="U7" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="192" t="s">
+      <c r="V7" s="195"/>
+      <c r="W7" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -9471,10 +9473,10 @@
         <v>113</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="60" t="s">
         <v>150</v>
@@ -9494,36 +9496,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="192" t="s">
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="192" t="s">
+      <c r="S8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="192" t="s">
+      <c r="T8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="192" t="s">
+      <c r="U8" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="192" t="s">
+      <c r="V8" s="195"/>
+      <c r="W8" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -9535,10 +9537,10 @@
         <v>113</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="60" t="s">
         <v>158</v>
@@ -9558,36 +9560,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="192" t="s">
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="192" t="s">
+      <c r="U9" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="192" t="s">
+      <c r="V9" s="195"/>
+      <c r="W9" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -9599,10 +9601,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>135</v>
@@ -9620,36 +9622,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="192" t="s">
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="192" t="s">
+      <c r="S10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="192" t="s">
+      <c r="T10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="192" t="s">
+      <c r="U10" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="192" t="s">
+      <c r="V10" s="195"/>
+      <c r="W10" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -9661,10 +9663,10 @@
         <v>113</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>154</v>
@@ -9684,36 +9686,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="192" t="s">
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="192" t="s">
+      <c r="V11" s="195"/>
+      <c r="W11" s="195" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -9725,10 +9727,10 @@
         <v>113</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>177</v>
@@ -9746,36 +9748,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="192" t="s">
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="192" t="s">
+      <c r="S12" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="192" t="s">
+      <c r="T12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="192" t="s">
+      <c r="U12" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192" t="s">
+      <c r="V12" s="195"/>
+      <c r="W12" s="195" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="192" t="s">
+      <c r="X12" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
@@ -9787,10 +9789,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="60" t="s">
         <v>178</v>
@@ -9813,10 +9815,10 @@
         <v>113</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S13" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T13" s="60" t="s">
         <v>178</v>
@@ -9860,10 +9862,10 @@
         <v>113</v>
       </c>
       <c r="R14" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S14" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T14" s="60" t="s">
         <v>183</v>
@@ -9906,10 +9908,10 @@
         <v>113</v>
       </c>
       <c r="R15" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S15" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T15" s="89" t="s">
         <v>184</v>
@@ -9952,10 +9954,10 @@
         <v>113</v>
       </c>
       <c r="R16" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S16" s="63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T16" s="60" t="s">
         <v>185</v>
@@ -9998,10 +10000,10 @@
         <v>113</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S17" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T17" s="89" t="s">
         <v>186</v>
@@ -10030,10 +10032,10 @@
         <v>113</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F18" s="89" t="s">
         <v>84</v>
@@ -10048,7 +10050,7 @@
       <c r="L18" s="109"/>
       <c r="M18" s="110"/>
       <c r="N18" s="114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O18" s="120"/>
       <c r="P18" s="120"/>
@@ -10056,16 +10058,16 @@
         <v>113</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T18" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U18" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V18" s="60"/>
       <c r="W18" s="60" t="s">
@@ -10096,7 +10098,7 @@
       <c r="L19" s="105"/>
       <c r="M19" s="103"/>
       <c r="N19" s="115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O19" s="120"/>
       <c r="P19" s="120"/>
@@ -10104,16 +10106,16 @@
         <v>113</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T19" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U19" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V19" s="60"/>
       <c r="W19" s="60" t="s">
@@ -10148,10 +10150,10 @@
         <v>113</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S20" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T20" s="66" t="s">
         <v>94</v>
@@ -10196,10 +10198,10 @@
         <v>113</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S21" s="82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T21" s="66" t="s">
         <v>101</v>

--- a/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO - ATUALIZADO.xlsx
@@ -2315,6 +2315,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2324,101 +2384,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2438,15 +2495,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2456,53 +2504,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2521,15 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2702,7 +2702,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2725,14 +2725,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2775,7 +2775,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2798,14 +2798,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3135,10 +3135,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="131"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
@@ -3176,28 +3176,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -3206,17 +3206,17 @@
       <c r="C11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141" t="s">
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -3225,94 +3225,86 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146" t="s">
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="130"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="130"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3323,6 +3315,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3380,17 +3380,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3399,132 +3399,132 @@
       <c r="C7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="109" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="109" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="109" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="109" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="109" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="109" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="109" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="109" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="109" t="s">
         <v>129</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
       <c r="B17" s="5"/>
@@ -3538,17 +3538,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="47" t="s">
@@ -3560,16 +3560,16 @@
       <c r="D19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="156" t="s">
+      <c r="E19" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="156" t="s">
+      <c r="F19" s="157"/>
+      <c r="G19" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
@@ -3579,14 +3579,14 @@
       <c r="D20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="155"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
@@ -3600,11 +3600,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="46" t="s">
@@ -3643,17 +3643,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="51" t="s">
@@ -3665,52 +3665,66 @@
       <c r="D28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="153" t="s">
+      <c r="E28" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153" t="s">
+      <c r="F28" s="152"/>
+      <c r="G28" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D15:J15"/>
@@ -3718,25 +3732,11 @@
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D7:J7"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D16:J16"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3758,7 +3758,7 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <oleObject progId="Visio.Drawing.11" shapeId="20483" r:id="rId3"/>
@@ -3821,39 +3821,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="176" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -4643,12 +4643,12 @@
         <v>2</v>
       </c>
       <c r="M15" s="97"/>
-      <c r="N15" s="179" t="s">
+      <c r="N15" s="167" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166" t="s">
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="63" t="s">
@@ -4657,28 +4657,28 @@
       <c r="S15" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="T15" s="182" t="s">
+      <c r="T15" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="U15" s="182" t="s">
+      <c r="U15" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="V15" s="163"/>
-      <c r="W15" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="X15" s="185" t="s">
+      <c r="V15" s="182"/>
+      <c r="W15" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="169">
+      <c r="Y15" s="185">
         <v>12</v>
       </c>
-      <c r="Z15" s="169">
+      <c r="Z15" s="185">
         <v>2</v>
       </c>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="179"/>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B16" s="60" t="s">
@@ -4715,26 +4715,26 @@
       <c r="M16" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="180"/>
-      <c r="O16" s="167"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
       <c r="R16" s="63" t="s">
         <v>199</v>
       </c>
       <c r="S16" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="170"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="180"/>
+      <c r="AB16" s="180"/>
+      <c r="AC16" s="180"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="60" t="s">
@@ -4771,26 +4771,26 @@
       <c r="M17" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="N17" s="181"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
       <c r="R17" s="63" t="s">
         <v>199</v>
       </c>
       <c r="S17" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="T17" s="184"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="181"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="83"/>
@@ -6618,6 +6618,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Z15:Z17"/>
+    <mergeCell ref="AA15:AA17"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -6629,12 +6635,6 @@
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="U15:U17"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Z15:Z17"/>
-    <mergeCell ref="AA15:AA17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6718,39 +6718,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="176" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -6869,40 +6869,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="188" t="s">
+      <c r="N4" s="191" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="191" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="191" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" s="195" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="194" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="194" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="195" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="196" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" s="196">
+      <c r="Y4" s="190">
         <v>2</v>
       </c>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -6936,36 +6936,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="192" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="195" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="195" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="195" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="196" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="Y5" s="196"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -6999,36 +6999,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="192" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="195" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="195" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="196" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -7063,36 +7063,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="192" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="195" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="195" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="195" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="196" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="194"/>
-      <c r="AA7" s="194"/>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="194"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -7127,36 +7127,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="192" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="195" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="195" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="195" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="196" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="194"/>
-      <c r="AA8" s="194"/>
-      <c r="AB8" s="194"/>
-      <c r="AC8" s="194"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -7191,36 +7191,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="192" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="195" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="195" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="195" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="196" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="196"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -7253,36 +7253,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="192" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="195" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="195" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="196" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="190" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="196"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -7317,36 +7317,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="192" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="195" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="195" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="195" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="195" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="196" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="196"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
@@ -7379,36 +7379,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="193" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="193" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="195" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="195" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="195" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="196" t="s">
+      <c r="X12" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="196"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1" ht="24" customHeight="1">
@@ -7853,14 +7853,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="T4:T12"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="U4:U12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7872,6 +7864,14 @@
     <mergeCell ref="AA4:AA12"/>
     <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="S4:S12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="T4:T12"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="U4:U12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7934,39 +7934,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="176" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -8085,40 +8085,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="188" t="s">
+      <c r="N4" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="O4" s="188"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" s="195" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="195" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="195" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -8152,36 +8152,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="195" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="195" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="195" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="195" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="195" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="189" t="s">
         <v>116</v>
       </c>
       <c r="Y5" s="197"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -8215,36 +8215,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="195" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="195" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="195" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="195" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y6" s="197"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -8279,36 +8279,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="195" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="195" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="195" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="195" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="195" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y7" s="197"/>
-      <c r="Z7" s="194"/>
-      <c r="AA7" s="194"/>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="194"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -8343,36 +8343,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="195" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="195" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="195" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="195" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="195" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="189" t="s">
         <v>116</v>
       </c>
       <c r="Y8" s="197"/>
-      <c r="Z8" s="194"/>
-      <c r="AA8" s="194"/>
-      <c r="AB8" s="194"/>
-      <c r="AC8" s="194"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -8407,36 +8407,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="195" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="195" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="195" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="195" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="195" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y9" s="197"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -8469,36 +8469,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="195" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="195" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="195" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="195" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="189" t="s">
         <v>117</v>
       </c>
       <c r="Y10" s="197"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -8533,36 +8533,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="195" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="195" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="195" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="195" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="195" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y11" s="197"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -8595,36 +8595,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="195" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="195" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="195" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="195" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="195" t="s">
+      <c r="X12" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y12" s="197"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33">
@@ -9005,13 +9005,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -9024,6 +9017,13 @@
     <mergeCell ref="V4:V12"/>
     <mergeCell ref="S4:S12"/>
     <mergeCell ref="U4:U12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9087,39 +9087,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="176" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="166"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -9238,40 +9238,40 @@
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="72"/>
-      <c r="N4" s="188" t="s">
+      <c r="N4" s="191" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" s="195" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" s="195" t="s">
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="195" t="s">
+      <c r="U4" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" s="195" t="s">
+      <c r="V4" s="189"/>
+      <c r="W4" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X4" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y4" s="197">
         <v>2</v>
       </c>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:33" s="15" customFormat="1" ht="12">
@@ -9305,36 +9305,36 @@
       </c>
       <c r="L5" s="88"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="195" t="s">
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S5" s="195" t="s">
+      <c r="S5" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="195" t="s">
+      <c r="T5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="195" t="s">
+      <c r="U5" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X5" s="195" t="s">
+      <c r="V5" s="189"/>
+      <c r="W5" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="189" t="s">
         <v>116</v>
       </c>
       <c r="Y5" s="197"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="112"/>
@@ -9368,36 +9368,36 @@
       </c>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="195" t="s">
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="195" t="s">
+      <c r="T6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="195" t="s">
+      <c r="U6" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="195" t="s">
+      <c r="V6" s="189"/>
+      <c r="W6" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y6" s="197"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" s="3" customFormat="1">
@@ -9432,36 +9432,36 @@
       </c>
       <c r="L7" s="72"/>
       <c r="M7" s="72"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" s="195" t="s">
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S7" s="195" t="s">
+      <c r="S7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="195" t="s">
+      <c r="T7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="195" t="s">
+      <c r="U7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="V7" s="195"/>
-      <c r="W7" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="195" t="s">
+      <c r="V7" s="189"/>
+      <c r="W7" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y7" s="197"/>
-      <c r="Z7" s="194"/>
-      <c r="AA7" s="194"/>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="194"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" s="3" customFormat="1">
@@ -9496,36 +9496,36 @@
       </c>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="195" t="s">
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="195" t="s">
+      <c r="S8" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="195" t="s">
+      <c r="T8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="195" t="s">
+      <c r="U8" s="189" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="195" t="s">
+      <c r="V8" s="189"/>
+      <c r="W8" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="189" t="s">
         <v>116</v>
       </c>
       <c r="Y8" s="197"/>
-      <c r="Z8" s="194"/>
-      <c r="AA8" s="194"/>
-      <c r="AB8" s="194"/>
-      <c r="AC8" s="194"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1">
@@ -9560,36 +9560,36 @@
       </c>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="195" t="s">
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="195" t="s">
+      <c r="S9" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="195" t="s">
+      <c r="T9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="U9" s="195" t="s">
+      <c r="U9" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" s="195" t="s">
+      <c r="V9" s="189"/>
+      <c r="W9" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y9" s="197"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" s="3" customFormat="1">
@@ -9622,36 +9622,36 @@
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="72"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10" s="195" t="s">
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="195" t="s">
+      <c r="S10" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="195" t="s">
+      <c r="T10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="195" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" s="189" t="s">
         <v>117</v>
       </c>
       <c r="Y10" s="197"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="188"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1">
@@ -9686,36 +9686,36 @@
       </c>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="195" t="s">
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S11" s="195" t="s">
+      <c r="S11" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="195" t="s">
+      <c r="T11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="195" t="s">
+      <c r="U11" s="189" t="s">
         <v>154</v>
       </c>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" s="195" t="s">
+      <c r="V11" s="189"/>
+      <c r="W11" s="189" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y11" s="197"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="188"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1">
@@ -9748,36 +9748,36 @@
       </c>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="195" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="S12" s="195" t="s">
+      <c r="S12" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="195" t="s">
+      <c r="T12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="U12" s="195" t="s">
+      <c r="U12" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="195"/>
-      <c r="W12" s="195" t="s">
+      <c r="V12" s="189"/>
+      <c r="W12" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="195" t="s">
+      <c r="X12" s="189" t="s">
         <v>118</v>
       </c>
       <c r="Y12" s="197"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="188"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="188"/>
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
@@ -10226,13 +10226,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="W4:W12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -10245,6 +10238,13 @@
     <mergeCell ref="V4:V12"/>
     <mergeCell ref="S4:S12"/>
     <mergeCell ref="U4:U12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -10512,16 +10512,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10570,39 +10569,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10617,10 +10602,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>